--- a/Table descLAST.xlsx
+++ b/Table descLAST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altanbagana.n\source\repos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4668FFBA-BA47-4829-B4C4-1CB931263CFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFBFC62-F508-4EE1-B921-537A360088DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="278">
   <si>
     <t>Boards</t>
   </si>
@@ -870,7 +870,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -901,8 +901,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -933,6 +940,12 @@
         <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -946,7 +959,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -960,6 +973,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1342,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S212"/>
+  <dimension ref="A1:S204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,10 +1416,10 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
@@ -1417,6 +1431,10 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2110,914 +2128,942 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" t="s">
+        <v>144</v>
+      </c>
+      <c r="G39" t="s">
+        <v>145</v>
+      </c>
+      <c r="H39" t="s">
+        <v>146</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" t="s">
+        <v>223</v>
+      </c>
+      <c r="D43" t="s">
+        <v>224</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J47" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" t="s">
+        <v>217</v>
+      </c>
+      <c r="E59" t="s">
+        <v>218</v>
+      </c>
+      <c r="F59" t="s">
+        <v>208</v>
+      </c>
+      <c r="G59" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67" t="s">
+        <v>95</v>
+      </c>
+      <c r="E67" t="s">
+        <v>96</v>
+      </c>
+      <c r="F67" t="s">
+        <v>97</v>
+      </c>
+      <c r="G67" t="s">
+        <v>98</v>
+      </c>
+      <c r="H67" t="s">
+        <v>99</v>
+      </c>
+      <c r="I67" t="s">
+        <v>80</v>
+      </c>
+      <c r="J67" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71" t="s">
+        <v>113</v>
+      </c>
+      <c r="E71" t="s">
+        <v>114</v>
+      </c>
+      <c r="F71" t="s">
+        <v>115</v>
+      </c>
+      <c r="G71" t="s">
+        <v>116</v>
+      </c>
+      <c r="H71" t="s">
+        <v>117</v>
+      </c>
+      <c r="I71" t="s">
+        <v>99</v>
+      </c>
+      <c r="J71" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" t="s">
+        <v>80</v>
+      </c>
+      <c r="F75" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D77" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79" t="s">
+        <v>130</v>
+      </c>
+      <c r="E79" t="s">
+        <v>131</v>
+      </c>
+      <c r="F79" t="s">
+        <v>132</v>
+      </c>
+      <c r="G79" t="s">
+        <v>42</v>
+      </c>
+      <c r="H79" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="4" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D85" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E85" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F85" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
         <v>53</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C86" t="s">
         <v>54</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D86" t="s">
         <v>13</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E86" t="s">
         <v>14</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F86" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L55" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M55" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" t="s">
-        <v>75</v>
-      </c>
-      <c r="C56" t="s">
-        <v>66</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J56" t="s">
-        <v>14</v>
-      </c>
-      <c r="K56" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" t="s">
-        <v>94</v>
-      </c>
-      <c r="D64" t="s">
-        <v>95</v>
-      </c>
-      <c r="E64" t="s">
-        <v>96</v>
-      </c>
-      <c r="F64" t="s">
-        <v>97</v>
-      </c>
-      <c r="G64" t="s">
-        <v>98</v>
-      </c>
-      <c r="H64" t="s">
-        <v>99</v>
-      </c>
-      <c r="I64" t="s">
-        <v>80</v>
-      </c>
-      <c r="J64" t="s">
-        <v>14</v>
-      </c>
-      <c r="K64" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>3</v>
-      </c>
-      <c r="B68" t="s">
-        <v>111</v>
-      </c>
-      <c r="C68" t="s">
-        <v>112</v>
-      </c>
-      <c r="D68" t="s">
-        <v>113</v>
-      </c>
-      <c r="E68" t="s">
-        <v>114</v>
-      </c>
-      <c r="F68" t="s">
-        <v>115</v>
-      </c>
-      <c r="G68" t="s">
-        <v>116</v>
-      </c>
-      <c r="H68" t="s">
-        <v>117</v>
-      </c>
-      <c r="I68" t="s">
-        <v>99</v>
-      </c>
-      <c r="J68" t="s">
-        <v>14</v>
-      </c>
-      <c r="K68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>3</v>
-      </c>
-      <c r="B72" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" t="s">
-        <v>117</v>
-      </c>
-      <c r="D72" t="s">
-        <v>99</v>
-      </c>
-      <c r="E72" t="s">
-        <v>80</v>
-      </c>
-      <c r="F72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D74" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>127</v>
-      </c>
-      <c r="B76" t="s">
-        <v>128</v>
-      </c>
-      <c r="C76" t="s">
-        <v>129</v>
-      </c>
-      <c r="D76" t="s">
-        <v>130</v>
-      </c>
-      <c r="E76" t="s">
-        <v>131</v>
-      </c>
-      <c r="F76" t="s">
-        <v>132</v>
-      </c>
-      <c r="G76" t="s">
-        <v>42</v>
-      </c>
-      <c r="H76" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80" t="s">
-        <v>96</v>
-      </c>
-      <c r="C80" t="s">
-        <v>141</v>
-      </c>
-      <c r="D80" t="s">
-        <v>142</v>
-      </c>
-      <c r="E80" t="s">
-        <v>143</v>
-      </c>
-      <c r="F80" t="s">
-        <v>144</v>
-      </c>
-      <c r="G80" t="s">
-        <v>145</v>
-      </c>
-      <c r="H80" t="s">
-        <v>146</v>
-      </c>
-      <c r="I80" t="s">
-        <v>14</v>
-      </c>
-      <c r="J80" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>3</v>
-      </c>
-      <c r="B84" t="s">
-        <v>96</v>
-      </c>
-      <c r="C84" t="s">
-        <v>97</v>
-      </c>
-      <c r="D84" t="s">
-        <v>14</v>
-      </c>
-      <c r="E84" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-    </row>
-    <row r="91" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H91" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I91" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="J91" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="F92" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="G92" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H92" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I92" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="J92" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K92" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="6"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>49</v>
-      </c>
-      <c r="B104" t="s">
-        <v>80</v>
-      </c>
-      <c r="C104" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>3</v>
-      </c>
-      <c r="B108" t="s">
-        <v>49</v>
-      </c>
-      <c r="C108" t="s">
-        <v>126</v>
-      </c>
-      <c r="D108" t="s">
-        <v>217</v>
-      </c>
-      <c r="E108" t="s">
-        <v>218</v>
-      </c>
-      <c r="F108" t="s">
-        <v>208</v>
-      </c>
-      <c r="G108" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>3</v>
-      </c>
-      <c r="B112" t="s">
-        <v>222</v>
-      </c>
-      <c r="C112" t="s">
-        <v>223</v>
-      </c>
-      <c r="D112" t="s">
-        <v>224</v>
-      </c>
-      <c r="E112" t="s">
-        <v>14</v>
-      </c>
-      <c r="F112" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="6"/>
-    </row>
-    <row r="116" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="6"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="6"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="6"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="6"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="6"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="6"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="6"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="6"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="6"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="6"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="6"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="6"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="6"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="6"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="6"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="6"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="6"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="6"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="6"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="6"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="6"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="6"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="6"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="6"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="6"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="6"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="6"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="6"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="6"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="6"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="6"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="6"/>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105" s="6"/>
+    </row>
+    <row r="107" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A111" s="6"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="6"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="6"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="6"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="6"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="6"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="6"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="6"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="6"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="6"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="6"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="6"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="6"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="6"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="6"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="6"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="6"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="6"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="6"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="6"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="6"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="6"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="6"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="6"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="6"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="6"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="6"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="6"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="6"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="6"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="6"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.24583333333333299" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Table descLAST.xlsx
+++ b/Table descLAST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altanbagana.n\source\repos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFBFC62-F508-4EE1-B921-537A360088DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD62CE26-B9DB-497A-BEF1-DF5865C22D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -909,7 +909,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -946,6 +946,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -959,7 +965,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -974,6 +980,7 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1358,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,7 +1394,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1456,7 +1463,7 @@
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="4" t="s">

--- a/Table descLAST.xlsx
+++ b/Table descLAST.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altanbagana.n\source\repos\pages\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD62CE26-B9DB-497A-BEF1-DF5865C22D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
-    <sheet name="State" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="State" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="293">
   <si>
     <t>Boards</t>
   </si>
@@ -861,16 +856,65 @@
   </si>
   <si>
     <t>4020.000000</t>
+  </si>
+  <si>
+    <t>төрөл 0-арилжааны данс, 1-клирингийн данс, 2-төлбөр тооцооны данс, 3-барьцааны данс, 4-зээлийн данс</t>
+  </si>
+  <si>
+    <t>+1 - орлого/-1 - зарлага</t>
+  </si>
+  <si>
+    <t>AssetBalances</t>
+  </si>
+  <si>
+    <t>1-долоо хоногийн өдрүүд</t>
+  </si>
+  <si>
+    <t>1-Даваа, 2-Мягмар ... Өдрүүдийг ";" тэмдэгтээр тусгаарласан байна</t>
+  </si>
+  <si>
+    <t>төлөв /State sheet-ээс харна уу/</t>
+  </si>
+  <si>
+    <t>тулгалт хийх алгоритм 0-тулгалт хийхгүй, 1-FIFO, 2-Equilbrium</t>
+  </si>
+  <si>
+    <t>зах зээлийн төрөл 0-margin, 2-DvP</t>
+  </si>
+  <si>
+    <t>зөвшөөрөх захиалгын төрөл 1-Зах зээлийн
+2-Нөхцөлт
+3-Кросс
+4-Тохиролцсон
+5-Зах зээл үүсгэгч</t>
+  </si>
+  <si>
+    <t>Үнэт цаасны төрөл 1-үнэт цаас, 2-бонд</t>
+  </si>
+  <si>
+    <t>гэрээний төрөл 1-спот, 2-форвард, 3-фьючерс, 4-опцион</t>
+  </si>
+  <si>
+    <t>авах талын дэнчинг тооцох төрөл 0-үнийн дүнгээс хувиар, 1-тогтмол дүнгээр</t>
+  </si>
+  <si>
+    <t>зарах талын дэнчинг тооцох төрөл 0-үнийн дүнгээс хувиар, 1-тогтмол дүнгээр</t>
+  </si>
+  <si>
+    <t>Төрөл 1-арилжаа, 2-ОТС, 3-Тохиролцоо, 4-Репо, 5-Зээл, 6-Барьцаа, 7-М2М</t>
+  </si>
+  <si>
+    <t>Төрөл 1-арилжаа, 2-ОТС, 3-Тохиролцоо</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -908,8 +952,22 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -952,6 +1010,30 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -965,7 +1047,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -981,6 +1063,24 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1355,30 +1455,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="19" width="20.7109375" customWidth="1"/>
-    <col min="20" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="4" max="19" width="20.6640625" customWidth="1"/>
+    <col min="20" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1393,7 +1493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -1416,7 +1516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1439,11 +1539,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1459,7 +1559,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1518,7 +1618,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1577,7 +1677,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>55</v>
       </c>
@@ -1586,7 +1686,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -1627,7 +1727,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1662,7 +1762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
       <c r="E12" s="8"/>
@@ -1671,7 +1771,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>175</v>
       </c>
@@ -1691,7 +1791,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
@@ -1738,7 +1838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1782,7 +1882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
       <c r="E16" s="8"/>
@@ -1791,14 +1891,14 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -1827,7 +1927,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1856,7 +1956,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>195</v>
       </c>
@@ -1876,7 +1976,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
@@ -1923,7 +2023,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1967,7 +2067,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>225</v>
       </c>
@@ -1986,7 +2086,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>3</v>
       </c>
@@ -2027,7 +2127,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>3</v>
       </c>
@@ -2069,7 +2169,7 @@
       </c>
       <c r="N27" s="9"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>149</v>
       </c>
@@ -2083,7 +2183,7 @@
       <c r="G29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>3</v>
       </c>
@@ -2109,7 +2209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>157</v>
       </c>
@@ -2135,7 +2235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>164</v>
       </c>
@@ -2149,7 +2249,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>3</v>
       </c>
@@ -2184,7 +2284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>3</v>
       </c>
@@ -2219,7 +2319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>134</v>
       </c>
@@ -2232,7 +2332,7 @@
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>3</v>
       </c>
@@ -2264,7 +2364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -2296,7 +2396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>219</v>
       </c>
@@ -2307,7 +2407,7 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
@@ -2327,7 +2427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -2347,7 +2447,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>73</v>
       </c>
@@ -2356,7 +2456,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>3</v>
       </c>
@@ -2397,7 +2497,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -2432,7 +2532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>147</v>
       </c>
@@ -2441,7 +2541,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>3</v>
       </c>
@@ -2458,7 +2558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -2475,7 +2575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>209</v>
       </c>
@@ -2484,7 +2584,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>3</v>
       </c>
@@ -2495,7 +2595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -2506,7 +2606,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>213</v>
       </c>
@@ -2515,7 +2615,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>3</v>
       </c>
@@ -2538,7 +2638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -2561,7 +2661,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>46</v>
       </c>
@@ -2570,7 +2670,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>3</v>
       </c>
@@ -2587,7 +2687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -2604,7 +2704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>83</v>
       </c>
@@ -2613,7 +2713,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>3</v>
       </c>
@@ -2648,7 +2748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -2683,7 +2783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>100</v>
       </c>
@@ -2692,7 +2792,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>3</v>
       </c>
@@ -2727,7 +2827,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -2762,7 +2862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>118</v>
       </c>
@@ -2771,7 +2871,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>3</v>
       </c>
@@ -2797,7 +2897,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -2823,7 +2923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>123</v>
       </c>
@@ -2835,7 +2935,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>3</v>
       </c>
@@ -2861,7 +2961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>127</v>
       </c>
@@ -2887,15 +2987,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>3</v>
       </c>
@@ -2915,7 +3015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -2935,10 +3035,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="6"/>
     </row>
-    <row r="107" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -2955,7 +3055,7 @@
       <c r="N107"/>
       <c r="O107"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -2972,100 +3072,100 @@
       <c r="N108" s="9"/>
       <c r="O108" s="9"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="6"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="6"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="6"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="6"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="6"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="6"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="6"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="6"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="6"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="6"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="6"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="6"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="6"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="6"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="6"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="6"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="6"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="6"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="6"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="6"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="6"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="6"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="6"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="6"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="6"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="6"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="6"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="6"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="6"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="6"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="6"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="6"/>
     </row>
   </sheetData>
@@ -3075,26 +3175,1716 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S204"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="28" style="16" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" style="16" customWidth="1"/>
+    <col min="5" max="19" width="20.6640625" style="16" customWidth="1"/>
+    <col min="20" max="1025" width="8.6640625" style="16" customWidth="1"/>
+    <col min="1026" max="16384" width="9.109375" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C4" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" s="26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C12" s="19"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="O15" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C16" s="19"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="O22" s="17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="N27" s="17"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J35" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="K35" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I46" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J46" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M46" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J47" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="K47" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I66" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J66" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J67" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="K67" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H70" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I70" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="J70" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K70" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H71" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I71" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="J71" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="K71" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H74" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="H75" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H78" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H79" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="15"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E90" s="16">
+        <v>100</v>
+      </c>
+      <c r="F90" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A105" s="15"/>
+    </row>
+    <row r="107" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="16"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="16"/>
+      <c r="L107" s="16"/>
+      <c r="M107" s="16"/>
+      <c r="N107" s="16"/>
+      <c r="O107" s="16"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A108" s="17"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A111" s="15"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="15"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="15"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="15"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="15"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="15"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="15"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="15"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="15"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="15"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="15"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="15"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="15"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="15"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="15"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="15"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="15"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="15"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="15"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="15"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="15"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="15"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="15"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="15"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="15"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="15"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="15"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="15"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="15"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="15"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="15"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>238</v>
       </c>
@@ -3102,7 +4892,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3110,7 +4900,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-1</v>
       </c>
@@ -3118,7 +4908,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3126,7 +4916,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>-2</v>
       </c>
@@ -3134,7 +4924,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>99</v>
       </c>
@@ -3148,22 +4938,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3228,7 +5018,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3293,7 +5083,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>

--- a/Table descLAST.xlsx
+++ b/Table descLAST.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altanbagana.n\source\repos\pages\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C653B0A-6B2A-4D21-897C-D07913660C92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="28935" yWindow="7215" windowWidth="28170" windowHeight="7710" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -13,16 +19,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="299">
   <si>
     <t>Boards</t>
   </si>
@@ -906,15 +908,33 @@
   <si>
     <t>Төрөл 1-арилжаа, 2-ОТС, 3-Тохиролцоо</t>
   </si>
+  <si>
+    <t>form-&gt;invoice</t>
+  </si>
+  <si>
+    <t>account-&gt;deals</t>
+  </si>
+  <si>
+    <t>instrument-&gt;boardinstruments</t>
+  </si>
+  <si>
+    <t>account-&gt;dealerAccounts</t>
+  </si>
+  <si>
+    <t>table-&gt;tickSizeTable</t>
+  </si>
+  <si>
+    <t>group-&gt;contarcts</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -965,6 +985,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1047,7 +1074,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1081,6 +1108,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1455,30 +1484,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S204"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="19" width="20.6640625" customWidth="1"/>
-    <col min="20" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="4" max="19" width="20.7109375" customWidth="1"/>
+    <col min="20" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1493,7 +1522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -1516,7 +1545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1539,11 +1568,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1559,7 +1588,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1618,7 +1647,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1677,7 +1706,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>55</v>
       </c>
@@ -1686,7 +1715,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -1727,7 +1756,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1762,7 +1791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
       <c r="E12" s="8"/>
@@ -1771,7 +1800,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>175</v>
       </c>
@@ -1791,7 +1820,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
@@ -1838,7 +1867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1882,7 +1911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
       <c r="E16" s="8"/>
@@ -1891,14 +1920,14 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -1927,7 +1956,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1956,7 +1985,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>195</v>
       </c>
@@ -1976,7 +2005,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
@@ -2023,7 +2052,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -2067,7 +2096,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>225</v>
       </c>
@@ -2086,7 +2115,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>3</v>
       </c>
@@ -2127,7 +2156,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>3</v>
       </c>
@@ -2169,7 +2198,7 @@
       </c>
       <c r="N27" s="9"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>149</v>
       </c>
@@ -2183,7 +2212,7 @@
       <c r="G29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>3</v>
       </c>
@@ -2209,7 +2238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>157</v>
       </c>
@@ -2235,7 +2264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>164</v>
       </c>
@@ -2249,7 +2278,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>3</v>
       </c>
@@ -2284,7 +2313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>3</v>
       </c>
@@ -2319,7 +2348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>134</v>
       </c>
@@ -2332,7 +2361,7 @@
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>3</v>
       </c>
@@ -2364,7 +2393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -2396,7 +2425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>219</v>
       </c>
@@ -2407,7 +2436,7 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
@@ -2427,7 +2456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -2447,7 +2476,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>73</v>
       </c>
@@ -2456,7 +2485,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>3</v>
       </c>
@@ -2497,7 +2526,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -2532,7 +2561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>147</v>
       </c>
@@ -2541,7 +2570,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>3</v>
       </c>
@@ -2558,7 +2587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -2575,7 +2604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>209</v>
       </c>
@@ -2584,7 +2613,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>3</v>
       </c>
@@ -2595,7 +2624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -2606,7 +2635,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>213</v>
       </c>
@@ -2615,7 +2644,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>3</v>
       </c>
@@ -2638,7 +2667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -2661,7 +2690,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>46</v>
       </c>
@@ -2670,7 +2699,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>3</v>
       </c>
@@ -2687,7 +2716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -2704,7 +2733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>83</v>
       </c>
@@ -2713,7 +2742,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>3</v>
       </c>
@@ -2748,7 +2777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -2783,7 +2812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>100</v>
       </c>
@@ -2792,7 +2821,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>3</v>
       </c>
@@ -2827,7 +2856,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -2862,7 +2891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>118</v>
       </c>
@@ -2871,7 +2900,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>3</v>
       </c>
@@ -2897,7 +2926,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -2923,7 +2952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>123</v>
       </c>
@@ -2935,7 +2964,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>3</v>
       </c>
@@ -2961,7 +2990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>127</v>
       </c>
@@ -2987,15 +3016,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>3</v>
       </c>
@@ -3015,7 +3044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -3035,10 +3064,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
     </row>
-    <row r="107" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -3055,7 +3084,7 @@
       <c r="N107"/>
       <c r="O107"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -3072,100 +3101,100 @@
       <c r="N108" s="9"/>
       <c r="O108" s="9"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
     </row>
   </sheetData>
@@ -3175,25 +3204,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S204"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="16" customWidth="1"/>
     <col min="3" max="3" width="28" style="16" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" style="16" customWidth="1"/>
-    <col min="5" max="19" width="20.6640625" style="16" customWidth="1"/>
-    <col min="20" max="1025" width="8.6640625" style="16" customWidth="1"/>
-    <col min="1026" max="16384" width="9.109375" style="16"/>
+    <col min="4" max="4" width="28.85546875" style="16" customWidth="1"/>
+    <col min="5" max="19" width="20.7109375" style="16" customWidth="1"/>
+    <col min="20" max="1025" width="8.7109375" style="16" customWidth="1"/>
+    <col min="1026" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -3205,7 +3234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -3228,7 +3257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
@@ -3251,7 +3280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C4" s="28" t="s">
         <v>281</v>
       </c>
@@ -3259,7 +3288,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>16</v>
       </c>
@@ -3268,7 +3297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>3</v>
       </c>
@@ -3327,7 +3356,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
@@ -3386,7 +3415,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>55</v>
       </c>
@@ -3395,7 +3424,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>3</v>
       </c>
@@ -3436,7 +3465,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>3</v>
       </c>
@@ -3471,7 +3500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C12" s="19"/>
       <c r="D12" s="17"/>
       <c r="E12" s="19"/>
@@ -3480,7 +3509,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>175</v>
       </c>
@@ -3488,7 +3517,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>3</v>
       </c>
@@ -3535,7 +3564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>3</v>
       </c>
@@ -3579,7 +3608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C16" s="19"/>
       <c r="D16" s="17"/>
       <c r="E16" s="19"/>
@@ -3588,14 +3617,14 @@
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>76</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>3</v>
       </c>
@@ -3624,7 +3653,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>3</v>
       </c>
@@ -3653,7 +3682,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>195</v>
       </c>
@@ -3661,7 +3690,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>3</v>
       </c>
@@ -3708,7 +3737,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>3</v>
       </c>
@@ -3752,7 +3781,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>225</v>
       </c>
@@ -3760,7 +3789,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>3</v>
       </c>
@@ -3801,7 +3830,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>3</v>
       </c>
@@ -3843,7 +3872,7 @@
       </c>
       <c r="N27" s="17"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>149</v>
       </c>
@@ -3851,7 +3880,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>3</v>
       </c>
@@ -3877,7 +3906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>157</v>
       </c>
@@ -3903,7 +3932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>164</v>
       </c>
@@ -3911,7 +3940,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>3</v>
       </c>
@@ -3946,7 +3975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>3</v>
       </c>
@@ -3981,7 +4010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>134</v>
       </c>
@@ -3992,7 +4021,7 @@
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>3</v>
       </c>
@@ -4024,7 +4053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>3</v>
       </c>
@@ -4056,7 +4085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>219</v>
       </c>
@@ -4064,7 +4093,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>3</v>
       </c>
@@ -4084,7 +4113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>3</v>
       </c>
@@ -4104,7 +4133,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>73</v>
       </c>
@@ -4113,7 +4142,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>3</v>
       </c>
@@ -4154,7 +4183,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>3</v>
       </c>
@@ -4189,7 +4218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>147</v>
       </c>
@@ -4197,7 +4226,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>3</v>
       </c>
@@ -4214,7 +4243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>3</v>
       </c>
@@ -4231,7 +4260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>209</v>
       </c>
@@ -4239,7 +4268,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>3</v>
       </c>
@@ -4250,7 +4279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>49</v>
       </c>
@@ -4261,12 +4290,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>3</v>
       </c>
@@ -4289,7 +4318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>3</v>
       </c>
@@ -4312,7 +4341,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
         <v>46</v>
       </c>
@@ -4321,7 +4350,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>3</v>
       </c>
@@ -4338,7 +4367,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>3</v>
       </c>
@@ -4355,7 +4384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
         <v>83</v>
       </c>
@@ -4364,7 +4393,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
         <v>3</v>
       </c>
@@ -4399,7 +4428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>3</v>
       </c>
@@ -4434,7 +4463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
         <v>100</v>
       </c>
@@ -4443,7 +4472,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
         <v>3</v>
       </c>
@@ -4478,7 +4507,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>3</v>
       </c>
@@ -4513,7 +4542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
         <v>118</v>
       </c>
@@ -4522,7 +4551,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
         <v>3</v>
       </c>
@@ -4548,7 +4577,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>3</v>
       </c>
@@ -4574,7 +4603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
         <v>123</v>
       </c>
@@ -4586,7 +4615,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
         <v>3</v>
       </c>
@@ -4612,7 +4641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>127</v>
       </c>
@@ -4638,15 +4667,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
         <v>3</v>
       </c>
@@ -4666,7 +4695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
         <v>3</v>
       </c>
@@ -4686,12 +4715,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>3</v>
       </c>
@@ -4717,7 +4746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E90" s="16">
         <v>100</v>
       </c>
@@ -4725,166 +4754,159 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A105" s="15"/>
-    </row>
-    <row r="107" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="16"/>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="16"/>
-      <c r="J107" s="16"/>
-      <c r="K107" s="16"/>
-      <c r="L107" s="16"/>
-      <c r="M107" s="16"/>
-      <c r="N107" s="16"/>
-      <c r="O107" s="16"/>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A108" s="17"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="17"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="17"/>
-      <c r="I108" s="17"/>
-      <c r="J108" s="17"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A111" s="15"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="15"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="15"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="15"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="15"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="15"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="15"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="15"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="15"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="15"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="15"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="15"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="15"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="15"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" s="15"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="15"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="15"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="15"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="15"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="15"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="15"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" s="15"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" s="15"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" s="15"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" s="15"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="15"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="15"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="15"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="15"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="15"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="15"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="15"/>
+    <row r="91" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="B91" s="32"/>
+    </row>
+    <row r="92" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="B92" s="32"/>
+    </row>
+    <row r="93" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="B93" s="32"/>
+    </row>
+    <row r="94" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="B94" s="32"/>
+    </row>
+    <row r="95" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="B95" s="32"/>
+    </row>
+    <row r="96" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="B96" s="32"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="15"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="15"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="15"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="15"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="15"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="15"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="15"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="15"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="15"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="15"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="15"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="15"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="15"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="15"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="15"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="15"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="15"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="15"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="15"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="15"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="15"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="15"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="15"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="15"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="15"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="15"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="15"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="15"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="15"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>238</v>
       </c>
@@ -4892,7 +4914,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4900,7 +4922,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-1</v>
       </c>
@@ -4908,7 +4930,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4916,7 +4938,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-2</v>
       </c>
@@ -4924,7 +4946,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>99</v>
       </c>
@@ -4939,21 +4961,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5018,7 +5040,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5083,7 +5105,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>

--- a/Table descLAST.xlsx
+++ b/Table descLAST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altanbagana.n\source\repos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C653B0A-6B2A-4D21-897C-D07913660C92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00B990F-A9E0-41F2-9F72-038B7FB3DD6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28935" yWindow="7215" windowWidth="28170" windowHeight="7710" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29520" yWindow="9300" windowWidth="28170" windowHeight="12645" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="318">
   <si>
     <t>Boards</t>
   </si>
@@ -925,6 +925,63 @@
   </si>
   <si>
     <t>group-&gt;contarcts</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>дансний дугаар</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>clearing</t>
+  </si>
+  <si>
+    <t>settlement</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>tickSize</t>
+  </si>
+  <si>
+    <t>arrangePrice</t>
+  </si>
+  <si>
+    <t>Deal 2</t>
+  </si>
+  <si>
+    <t>memberId</t>
+  </si>
+  <si>
+    <t>assetAmount</t>
+  </si>
+  <si>
+    <t>pirce</t>
+  </si>
+  <si>
+    <t>collateral</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>orderID</t>
+  </si>
+  <si>
+    <t>from member</t>
+  </si>
+  <si>
+    <t>Төрөл 1- repo, 2-loan1, 3-loan2,4 collateral1, 5 collateral2</t>
+  </si>
+  <si>
+    <t>member2id</t>
+  </si>
+  <si>
+    <t>account2id</t>
   </si>
 </sst>
 </file>
@@ -934,7 +991,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -993,8 +1050,16 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1061,8 +1126,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1070,11 +1146,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1110,8 +1202,12 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3207,8 +3303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4790,37 +4886,204 @@
       </c>
       <c r="B96" s="32"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="15"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F99" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="G99" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="15"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="15"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G103"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G104"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D105" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="F105" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="G105"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G106"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H107"/>
+      <c r="I107"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J108"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="15"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J110"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="27" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="F112" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="H112" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="I112" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="15"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="15"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E117" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F117" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G117" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H117" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I117" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J117" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K117" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+    </row>
+    <row r="118" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="D118" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F118" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G118" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H118" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I118" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J118" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="K118" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="15"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="15"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="15"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">

--- a/Table descLAST.xlsx
+++ b/Table descLAST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altanbagana.n\source\repos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00B990F-A9E0-41F2-9F72-038B7FB3DD6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA8E89F-F9BE-4D6E-80B2-7723A3406145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29520" yWindow="9300" windowWidth="28170" windowHeight="12645" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="2340" windowWidth="28170" windowHeight="12645" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="315">
   <si>
     <t>Boards</t>
   </si>
@@ -957,19 +957,10 @@
     <t>memberId</t>
   </si>
   <si>
-    <t>assetAmount</t>
-  </si>
-  <si>
-    <t>pirce</t>
-  </si>
-  <si>
     <t>collateral</t>
   </si>
   <si>
     <t>order</t>
-  </si>
-  <si>
-    <t>orderID</t>
   </si>
   <si>
     <t>from member</t>
@@ -991,7 +982,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1058,8 +1049,25 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1137,8 +1145,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1161,12 +1179,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1205,9 +1240,14 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" xfId="3"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3301,10 +3341,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S185"/>
+  <dimension ref="A1:S180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="K110" sqref="K110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4886,7 +4926,7 @@
       </c>
       <c r="B96" s="32"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
         <v>299</v>
       </c>
@@ -4894,7 +4934,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="33" t="s">
         <v>3</v>
       </c>
@@ -4911,25 +4951,25 @@
         <v>303</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G99" s="35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="15"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G103"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
         <v>304</v>
       </c>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
         <v>3</v>
       </c>
@@ -4950,198 +4990,206 @@
       </c>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G106"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="15"/>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" s="27"/>
+      <c r="H106"/>
+      <c r="I106"/>
+    </row>
+    <row r="107" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H107"/>
       <c r="I107"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J108"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="15"/>
-      <c r="J110"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="27" t="s">
+    <row r="108" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="27" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B112" s="16" t="s">
+      <c r="B108" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C108" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D108" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="E108" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F108" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="G108" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H108" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I108" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="C112" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="D112" s="16" t="s">
+      <c r="J108" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="K108" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L108" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H109"/>
+      <c r="I109"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H110"/>
+      <c r="I110"/>
+    </row>
+    <row r="111" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="H111"/>
+      <c r="I111"/>
+    </row>
+    <row r="112" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C112" s="17"/>
+      <c r="D112" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E112" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F112" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E112" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="F112" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="G112" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="H112" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="I112" s="16" t="s">
+      <c r="G112" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="H112" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="I112" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="J112" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K112" s="17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="15"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" s="15" t="s">
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+    </row>
+    <row r="113" spans="1:11" ht="78.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="C116" s="16" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B117" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C117" s="17"/>
-      <c r="D117" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E117" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F117" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G117" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H117" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I117" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="J117" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K117" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-    </row>
-    <row r="118" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B118" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="D118" s="16" t="s">
+      <c r="D113" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E118" s="16" t="s">
+      <c r="E113" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F118" s="16" t="s">
+      <c r="F113" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="G118" s="16" t="s">
+      <c r="G113" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="H118" s="16" t="s">
+      <c r="H113" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="I118" s="16" t="s">
+      <c r="I113" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="J118" s="28" t="s">
+      <c r="J113" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="K118" s="16" t="s">
+      <c r="K113" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" s="15"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" s="15"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" s="15"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="15"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="15"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="15"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="15"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="15"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="15"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="15"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="15"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="15"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="15"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="15"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="15"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="15"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="15"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="15"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="15"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="15"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="15"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="15"/>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="15"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="15"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="15"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="15"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="15"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="15"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="15"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="15"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="15"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="15"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="15"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="15"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="15"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="15"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="15"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="15"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="15"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="15"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="15"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="15"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="15"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table descLAST.xlsx
+++ b/Table descLAST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altanbagana.n\source\repos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA8E89F-F9BE-4D6E-80B2-7723A3406145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4859DD-8062-49CF-8106-6F0EF175512F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="2340" windowWidth="28170" windowHeight="12645" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1575" yWindow="1455" windowWidth="28170" windowHeight="12645" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="319">
   <si>
     <t>Boards</t>
   </si>
@@ -973,6 +972,18 @@
   </si>
   <si>
     <t>account2id</t>
+  </si>
+  <si>
+    <t>дилер эсэх</t>
+  </si>
+  <si>
+    <t>төрөл bit mask: 0-брокер 70, 1-клиринг 61  бол дилер харагдахгүй,2-андерайтер 70</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>70xxh100</t>
   </si>
 </sst>
 </file>
@@ -1245,10 +1256,10 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="2" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Ердийн" xfId="0" builtinId="0"/>
+    <cellStyle name="Муу" xfId="1" builtinId="27"/>
+    <cellStyle name="Нүдийг чагтлах" xfId="3" builtinId="23"/>
+    <cellStyle name="Саармаг" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1332,7 +1343,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-н загвар">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3343,8 +3354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="K110" sqref="K110"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4068,7 +4079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>164</v>
       </c>
@@ -4076,7 +4087,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>3</v>
       </c>
@@ -4111,7 +4122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>3</v>
       </c>
@@ -4146,7 +4157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>134</v>
       </c>
@@ -4157,7 +4168,7 @@
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>3</v>
       </c>
@@ -4189,7 +4200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>3</v>
       </c>
@@ -4221,7 +4232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>219</v>
       </c>
@@ -4229,7 +4240,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>3</v>
       </c>
@@ -4249,7 +4260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>3</v>
       </c>
@@ -4267,91 +4278,6 @@
       </c>
       <c r="F43" s="16" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H46" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="I46" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J46" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K46" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="L46" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="M46" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="H47" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="I47" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="J47" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="K47" s="16" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -5093,7 +5019,7 @@
       <c r="L112" s="17"/>
       <c r="M112" s="17"/>
     </row>
-    <row r="113" spans="1:11" ht="78.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="78.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
         <v>3</v>
       </c>
@@ -5125,16 +5051,107 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="15"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="15"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A119" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B119" s="15"/>
+      <c r="C119" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A120" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E120" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F120" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G120" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H120" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I120" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J120" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K120" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L120" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M120" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N120" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="O120" s="17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F121" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G121" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H121" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I121" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J121" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="K121" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O121" s="16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="15"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="15"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">

--- a/Table descLAST.xlsx
+++ b/Table descLAST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altanbagana.n\source\repos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4859DD-8062-49CF-8106-6F0EF175512F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0883BC0D-0585-4854-8710-BFDE055A7978}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="1455" windowWidth="28170" windowHeight="12645" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1560" windowWidth="28170" windowHeight="12645" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -3354,8 +3354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5019,7 +5019,7 @@
       <c r="L112" s="17"/>
       <c r="M112" s="17"/>
     </row>
-    <row r="113" spans="1:15" ht="78.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
         <v>3</v>
       </c>
@@ -5053,6 +5053,7 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="15"/>
+      <c r="G117"/>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">

--- a/Table descLAST.xlsx
+++ b/Table descLAST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altanbagana.n\source\repos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0883BC0D-0585-4854-8710-BFDE055A7978}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5EED81-6567-407B-BA59-918807850B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1560" windowWidth="28170" windowHeight="12645" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -868,9 +868,6 @@
     <t>AssetBalances</t>
   </si>
   <si>
-    <t>1-долоо хоногийн өдрүүд</t>
-  </si>
-  <si>
     <t>1-Даваа, 2-Мягмар ... Өдрүүдийг ";" тэмдэгтээр тусгаарласан байна</t>
   </si>
   <si>
@@ -890,9 +887,6 @@
 5-Зах зээл үүсгэгч</t>
   </si>
   <si>
-    <t>Үнэт цаасны төрөл 1-үнэт цаас, 2-бонд</t>
-  </si>
-  <si>
     <t>гэрээний төрөл 1-спот, 2-форвард, 3-фьючерс, 4-опцион</t>
   </si>
   <si>
@@ -984,6 +978,12 @@
   </si>
   <si>
     <t>70xxh100</t>
+  </si>
+  <si>
+    <t>Үнэт цаасны төрөл 1-хувьцаа, 2-бонд</t>
+  </si>
+  <si>
+    <t>1-долоо хоногийн өдрүүд 2 сар</t>
   </si>
 </sst>
 </file>
@@ -3354,8 +3354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="G117" sqref="G117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3421,7 +3421,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>15</v>
@@ -3429,10 +3429,10 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C4" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>281</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -3520,19 +3520,19 @@
         <v>34</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>15</v>
@@ -3559,7 +3559,7 @@
         <v>44</v>
       </c>
       <c r="S7" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -3641,7 +3641,7 @@
         <v>72</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>15</v>
@@ -3719,7 +3719,7 @@
         <v>186</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>66</v>
@@ -3749,7 +3749,7 @@
         <v>194</v>
       </c>
       <c r="N15" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O15" s="20" t="s">
         <v>15</v>
@@ -3820,7 +3820,7 @@
         <v>81</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>15</v>
@@ -3892,7 +3892,7 @@
         <v>201</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>66</v>
@@ -3913,7 +3913,7 @@
         <v>205</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L23" s="20" t="s">
         <v>15</v>
@@ -4009,7 +4009,7 @@
         <v>53</v>
       </c>
       <c r="K27" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L27" s="17" t="s">
         <v>212</v>
@@ -4064,10 +4064,10 @@
         <v>159</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>162</v>
@@ -4151,7 +4151,7 @@
         <v>174</v>
       </c>
       <c r="J35" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K35" s="20" t="s">
         <v>15</v>
@@ -4226,7 +4226,7 @@
         <v>146</v>
       </c>
       <c r="I39" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J39" s="16" t="s">
         <v>15</v>
@@ -4274,7 +4274,7 @@
         <v>224</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>212</v>
@@ -4316,7 +4316,7 @@
         <v>97</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>15</v>
@@ -4495,7 +4495,7 @@
         <v>3</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C67" s="16" t="s">
         <v>94</v>
@@ -4519,7 +4519,7 @@
         <v>80</v>
       </c>
       <c r="J67" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K67" s="16" t="s">
         <v>15</v>
@@ -4574,7 +4574,7 @@
         <v>3</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C71" s="16" t="s">
         <v>112</v>
@@ -4598,7 +4598,7 @@
         <v>99</v>
       </c>
       <c r="J71" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K71" s="16" t="s">
         <v>15</v>
@@ -4659,7 +4659,7 @@
         <v>13</v>
       </c>
       <c r="G75" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H75" s="16" t="s">
         <v>15</v>
@@ -4818,46 +4818,46 @@
     </row>
     <row r="91" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="32" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B91" s="32"/>
     </row>
     <row r="92" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="32" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B92" s="32"/>
     </row>
     <row r="93" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="32" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B93" s="32"/>
     </row>
     <row r="94" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B94" s="32"/>
     </row>
     <row r="95" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="32" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B95" s="32"/>
     </row>
     <row r="96" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="32" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B96" s="32"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4868,16 +4868,16 @@
         <v>88</v>
       </c>
       <c r="C99" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="E99" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="D99" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>303</v>
-      </c>
       <c r="F99" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G99" s="35" t="s">
         <v>9</v>
@@ -4891,7 +4891,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G104"/>
     </row>
@@ -4900,10 +4900,10 @@
         <v>3</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D105" s="16" t="s">
         <v>9</v>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="108" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="27" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B108" s="17" t="s">
         <v>85</v>
@@ -4936,7 +4936,7 @@
         <v>87</v>
       </c>
       <c r="D108" s="36" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E108" s="36" t="s">
         <v>89</v>
@@ -4951,10 +4951,10 @@
         <v>92</v>
       </c>
       <c r="I108" s="26" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J108" s="26" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K108" s="17" t="s">
         <v>8</v>
@@ -4976,10 +4976,10 @@
     </row>
     <row r="111" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H111"/>
       <c r="I111"/>
@@ -5024,7 +5024,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>95</v>
@@ -5045,7 +5045,7 @@
         <v>80</v>
       </c>
       <c r="J113" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K113" s="16" t="s">
         <v>15</v>
@@ -5105,10 +5105,10 @@
         <v>65</v>
       </c>
       <c r="N120" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="O120" s="17" t="s">
         <v>315</v>
-      </c>
-      <c r="O120" s="17" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
@@ -5116,7 +5116,7 @@
         <v>3</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C121" s="16" t="s">
         <v>66</v>
@@ -5140,13 +5140,13 @@
         <v>72</v>
       </c>
       <c r="J121" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K121" s="16" t="s">
         <v>15</v>
       </c>
       <c r="O121" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">

--- a/Table descLAST.xlsx
+++ b/Table descLAST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altanbagana.n\source\repos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5EED81-6567-407B-BA59-918807850B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18600AE-20B6-4290-A53E-2EBBB56EEECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28920" yWindow="1560" windowWidth="28170" windowHeight="12645" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -3355,7 +3355,7 @@
   <dimension ref="A1:S180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5210,8 +5210,8 @@
       <c r="A180" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="1.0899999999999999" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="92" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5285,7 +5285,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5501,6 +5501,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Table descLAST.xlsx
+++ b/Table descLAST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altanbagana.n\source\repos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18600AE-20B6-4290-A53E-2EBBB56EEECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19239879-BFA5-4195-839A-820CD24E7C55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28920" yWindow="1560" windowWidth="28170" windowHeight="12645" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29430" yWindow="990" windowWidth="28170" windowHeight="12645" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="320">
   <si>
     <t>Boards</t>
   </si>
@@ -984,6 +984,9 @@
   </si>
   <si>
     <t>1-долоо хоногийн өдрүүд 2 сар</t>
+  </si>
+  <si>
+    <t>DEAL TYPE</t>
   </si>
 </sst>
 </file>
@@ -3352,10 +3355,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S180"/>
+  <dimension ref="A5:S180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3369,72 +3372,6 @@
     <col min="1026" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C4" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>281</v>
-      </c>
-    </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>16</v>
@@ -4446,85 +4383,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E66" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F66" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G66" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H66" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I66" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="J66" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K66" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="I67" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J67" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="K67" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
         <v>100</v>
@@ -5152,25 +5010,177 @@
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="15"/>
     </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J124" s="37"/>
+    </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="15"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="15"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A127" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" s="15"/>
+      <c r="C127" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G127" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A128" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G128" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H128" s="37" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="G129" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H129" s="37"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C130" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="D130" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="H130" s="37"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="15"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="15"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B134" s="15"/>
+      <c r="C134" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L134" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C135" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E135" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F135" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G135" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H135" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I135" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J135" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K135" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L135" s="37"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F136" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G136" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H136" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I136" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J136" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="K136" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L136" s="37"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="15"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="15"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="15"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">

--- a/Table descLAST.xlsx
+++ b/Table descLAST.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altanbagana.n\source\repos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19239879-BFA5-4195-839A-820CD24E7C55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E66EB6F-A476-4955-80D9-B5FE6082A56B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29430" yWindow="990" windowWidth="28170" windowHeight="12645" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
     <sheet name="State" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="id_x0009_bigint_x0009_Unchecked" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="343">
   <si>
     <t>Boards</t>
   </si>
@@ -987,6 +988,75 @@
   </si>
   <si>
     <t>DEAL TYPE</t>
+  </si>
+  <si>
+    <t>dealType</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>Арилжаа</t>
+  </si>
+  <si>
+    <t>REPO</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>invoiceno</t>
+  </si>
+  <si>
+    <t>invoicedate</t>
+  </si>
+  <si>
+    <t>fromid</t>
+  </si>
+  <si>
+    <t>BID</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1169,6 +1239,12 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1215,7 +1291,7 @@
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1257,6 +1333,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="2" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Ердийн" xfId="0" builtinId="0"/>
@@ -3357,8 +3440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A5:S180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5513,4 +5596,568 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B814BD-924A-4B40-9373-2457DF501635}">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="39">
+        <v>11</v>
+      </c>
+      <c r="B2" s="39">
+        <v>3</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="39">
+        <v>12</v>
+      </c>
+      <c r="E2" s="39">
+        <v>1</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="G2" s="39">
+        <v>10</v>
+      </c>
+      <c r="H2" s="39">
+        <v>35</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="J2" s="42">
+        <v>21</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="39">
+        <v>11</v>
+      </c>
+      <c r="B3" s="39">
+        <v>3</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="39">
+        <v>16</v>
+      </c>
+      <c r="E3" s="39">
+        <v>1</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="G3" s="39">
+        <v>10</v>
+      </c>
+      <c r="H3" s="39">
+        <v>35</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="J3" s="42">
+        <v>1</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>321</v>
+      </c>
+      <c r="J4" s="43">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>321</v>
+      </c>
+      <c r="J5" s="43">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="39">
+        <v>13</v>
+      </c>
+      <c r="B6" s="39">
+        <v>6</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="39">
+        <v>11</v>
+      </c>
+      <c r="E6" s="39">
+        <v>1</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="G6" s="39">
+        <v>30</v>
+      </c>
+      <c r="H6" s="39">
+        <v>35</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="J6" s="42">
+        <v>12</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="39">
+        <v>13</v>
+      </c>
+      <c r="B7" s="39">
+        <v>6</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="39">
+        <v>10</v>
+      </c>
+      <c r="E7" s="39">
+        <v>1</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="G7" s="39">
+        <v>30</v>
+      </c>
+      <c r="H7" s="39">
+        <v>35</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="J7" s="42">
+        <v>31</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E9" t="s">
+        <v>332</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" t="s">
+        <v>333</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="B10" s="39">
+        <v>3</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="D10" s="39">
+        <v>1</v>
+      </c>
+      <c r="E10" s="42">
+        <v>21</v>
+      </c>
+      <c r="F10" s="45">
+        <v>43488.416666666664</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="J10" s="39">
+        <v>-10</v>
+      </c>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="J11" s="39">
+        <v>350</v>
+      </c>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
+        <v>326</v>
+      </c>
+      <c r="B12" s="39">
+        <v>3</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="D12" s="39">
+        <v>2</v>
+      </c>
+      <c r="E12" s="42">
+        <v>21</v>
+      </c>
+      <c r="F12" s="45">
+        <v>43489</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>335</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="J12" s="39">
+        <v>10</v>
+      </c>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="J13" s="39">
+        <v>-350</v>
+      </c>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>323</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="43">
+        <v>21</v>
+      </c>
+      <c r="F14" s="40">
+        <v>43490</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>336</v>
+      </c>
+      <c r="I14" t="s">
+        <v>264</v>
+      </c>
+      <c r="J14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" s="43">
+        <v>21</v>
+      </c>
+      <c r="F16" s="40">
+        <v>43491</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>336</v>
+      </c>
+      <c r="I16" t="s">
+        <v>338</v>
+      </c>
+      <c r="J16">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="B18" s="39">
+        <v>6</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="D18" s="39">
+        <v>5</v>
+      </c>
+      <c r="E18" s="42">
+        <v>12</v>
+      </c>
+      <c r="F18" s="45">
+        <v>43492</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="H18" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="J18" s="39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="B20" s="39">
+        <v>6</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="D20" s="39">
+        <v>6</v>
+      </c>
+      <c r="E20" s="42">
+        <v>12</v>
+      </c>
+      <c r="F20" s="45">
+        <v>43493</v>
+      </c>
+      <c r="G20" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="H20" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="J20" s="39">
+        <v>1050</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Table descLAST.xlsx
+++ b/Table descLAST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altanbagana.n\source\repos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E66EB6F-A476-4955-80D9-B5FE6082A56B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8069B16-D6FD-45F0-BD7D-A4F7770202C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30825" yWindow="1845" windowWidth="24585" windowHeight="12360" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -1342,10 +1342,10 @@
     <xf numFmtId="16" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Ердийн" xfId="0" builtinId="0"/>
-    <cellStyle name="Муу" xfId="1" builtinId="27"/>
-    <cellStyle name="Нүдийг чагтлах" xfId="3" builtinId="23"/>
-    <cellStyle name="Саармаг" xfId="2" builtinId="28"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1429,7 +1429,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-н загвар">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3438,10 +3438,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A5:S180"/>
+  <dimension ref="A1:S176"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3455,13 +3455,140 @@
     <col min="1026" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>284</v>
+      </c>
+    </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15" t="s">
-        <v>17</v>
+      <c r="A5" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -3469,28 +3596,28 @@
         <v>3</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>8</v>
@@ -3499,57 +3626,39 @@
         <v>9</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="105" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>13</v>
+      <c r="D7" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="J7" s="28" t="s">
         <v>282</v>
@@ -3557,38 +3666,22 @@
       <c r="K7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="R7" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" s="26" t="s">
-        <v>284</v>
-      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C8" s="19"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18" t="s">
-        <v>56</v>
+      <c r="A9" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -3596,40 +3689,46 @@
         <v>3</v>
       </c>
       <c r="B10" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="E10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>61</v>
+      <c r="F10" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>179</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="J10" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="N10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="O10" s="17" t="s">
         <v>9</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -3637,33 +3736,42 @@
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="E11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" s="28" t="s">
+      <c r="F11" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="N11" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="O11" s="20" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3678,57 +3786,38 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>176</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>177</v>
+        <v>57</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>179</v>
+        <v>52</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>180</v>
+        <v>9</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="N14" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="17" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -3736,88 +3825,83 @@
         <v>3</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>317</v>
+        <v>66</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>188</v>
+        <v>81</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>282</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>189</v>
+        <v>15</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="N15" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="O15" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C16" s="19"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
+        <v>82</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
+        <v>195</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="E18" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="F18" s="17" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="G18" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="L18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="17" t="s">
-        <v>79</v>
+      <c r="M18" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="O18" s="17" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -3825,36 +3909,51 @@
         <v>3</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="E19" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F19" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="K19" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="L19" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="16" t="s">
-        <v>82</v>
+      <c r="M19" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="N19" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="O19" s="16" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -3862,31 +3961,31 @@
         <v>3</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C22" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>57</v>
-      </c>
       <c r="E22" s="17" t="s">
-        <v>4</v>
+        <v>227</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>185</v>
+        <v>51</v>
       </c>
       <c r="K22" s="17" t="s">
         <v>8</v>
@@ -3895,65 +3994,57 @@
         <v>9</v>
       </c>
       <c r="M22" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="N22" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="O22" s="17" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>205</v>
+      <c r="A23" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="K23" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="L23" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="M23" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="N23" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="O23" s="16" t="s">
-        <v>208</v>
-      </c>
+      <c r="L23" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="N23" s="17"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>226</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -3961,351 +4052,302 @@
         <v>3</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>89</v>
+        <v>151</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>227</v>
+        <v>154</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>228</v>
+        <v>155</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J26" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L26" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="M26" s="17" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="L27" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="M27" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="N27" s="17"/>
+      <c r="A27" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="H30" s="17" t="s">
+      <c r="A30" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="H31" s="16" t="s">
+      <c r="A31" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J31" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="K31" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="C34" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="C34" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E34" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="J34" s="21" t="s">
+      <c r="D46" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K34" s="21" t="s">
+      <c r="E46" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="20" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="C47" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E35" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="J35" s="28" t="s">
+      <c r="D47" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="K35" s="20" t="s">
+      <c r="E47" s="16" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="H38" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="I38" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J38" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="H39" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="I39" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="J39" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -4313,41 +4355,26 @@
         <v>3</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>88</v>
+        <v>211</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -4355,26 +4382,54 @@
         <v>3</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="C54" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="G54" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="16" t="s">
-        <v>80</v>
-      </c>
       <c r="C55" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="G55" s="16" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
-        <v>213</v>
+        <v>46</v>
+      </c>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -4382,21 +4437,15 @@
         <v>3</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>214</v>
+        <v>8</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="F58" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="G58" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4405,70 +4454,100 @@
         <v>3</v>
       </c>
       <c r="B59" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="16" t="s">
-        <v>126</v>
-      </c>
       <c r="D59" s="16" t="s">
-        <v>217</v>
+        <v>14</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I66" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="J66" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K66" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="J67" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="K67" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="15" t="s">
@@ -4480,33 +4559,24 @@
         <v>3</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H70" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="I70" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="J70" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="K70" s="17" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4514,44 +4584,38 @@
       <c r="A71" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="26" t="s">
-        <v>289</v>
+      <c r="B71" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="G71" s="16" t="s">
-        <v>116</v>
+        <v>13</v>
+      </c>
+      <c r="G71" s="28" t="s">
+        <v>282</v>
       </c>
       <c r="H71" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="I71" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="J71" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="K71" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B73" s="15"/>
       <c r="C73" s="15" t="s">
-        <v>84</v>
+        <v>124</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4559,748 +4623,684 @@
         <v>3</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="H74" s="17" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="F75" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H75" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="15"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D82" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G75" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="H75" s="16" t="s">
+      <c r="E82" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F78" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G78" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H78" s="17" t="s">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G85" s="16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D79" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="F79" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="G79" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H79" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B85" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E85" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" s="17" t="s">
+      <c r="H85" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D86" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="27" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D89" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F89" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H89" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E90" s="16">
+      <c r="E86" s="16">
         <v>100</v>
       </c>
-      <c r="F90" s="16">
+      <c r="F86" s="16">
         <v>10</v>
       </c>
+    </row>
+    <row r="87" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="B87" s="32"/>
+    </row>
+    <row r="88" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="B88" s="32"/>
+    </row>
+    <row r="89" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="B89" s="32"/>
+    </row>
+    <row r="90" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="B90" s="32"/>
     </row>
     <row r="91" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="32" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B91" s="32"/>
     </row>
     <row r="92" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="32" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B92" s="32"/>
     </row>
-    <row r="93" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="B93" s="32"/>
-    </row>
-    <row r="94" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="B94" s="32"/>
-    </row>
-    <row r="95" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="B95" s="32"/>
-    </row>
-    <row r="96" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="32" t="s">
-        <v>291</v>
-      </c>
-      <c r="B96" s="32"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="15" t="s">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="C94" s="16" t="s">
         <v>298</v>
       </c>
     </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="G95" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="15"/>
+    </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="D99" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="F99" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="G99" s="35" t="s">
+      <c r="G99"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="G100"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D101" s="16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" s="15"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G103"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="G104"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E101" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="F101" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="G101"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="27"/>
+      <c r="H102"/>
+      <c r="I102"/>
+    </row>
+    <row r="103" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H103"/>
+      <c r="I103"/>
+    </row>
+    <row r="104" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C104" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D104" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="E104" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F104" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="G104" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H104" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I104" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="J104" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="K104" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L104" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B105" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="D105" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="F105" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" s="27"/>
       <c r="H106"/>
       <c r="I106"/>
     </row>
     <row r="107" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>309</v>
+      </c>
       <c r="H107"/>
       <c r="I107"/>
     </row>
     <row r="108" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="27" t="s">
-        <v>305</v>
+      <c r="A108" s="17" t="s">
+        <v>3</v>
       </c>
       <c r="B108" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C108" s="38" t="s">
+      <c r="C108" s="17"/>
+      <c r="D108" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="D108" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="E108" s="36" t="s">
+      <c r="E108" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F108" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="F108" s="37" t="s">
+      <c r="G108" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="G108" s="37" t="s">
+      <c r="H108" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="H108" s="37" t="s">
+      <c r="I108" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="I108" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="J108" s="26" t="s">
-        <v>312</v>
+      <c r="J108" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="K108" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+    </row>
+    <row r="109" spans="1:13" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F109" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G109" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H109" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I109" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J109" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="K109" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113" s="15"/>
+      <c r="G113"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B115" s="15"/>
+      <c r="C115" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E116" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F116" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G116" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H116" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I116" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J116" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L108" s="17" t="s">
+      <c r="K116" s="17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H109"/>
-      <c r="I109"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H110"/>
-      <c r="I110"/>
-    </row>
-    <row r="111" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="H111"/>
-      <c r="I111"/>
-    </row>
-    <row r="112" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B112" s="17" t="s">
+      <c r="L116" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M116" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N116" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="O116" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D117" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F117" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G117" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H117" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I117" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J117" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="K117" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O117" s="16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A119" s="15"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J120" s="37"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A122" s="15"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A123" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="15"/>
+      <c r="C123" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G123" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A124" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G124" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H124" s="37" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A125" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="G125" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125" s="37"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C126" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="D126" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="H126" s="37"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A128" s="15"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L130" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C112" s="17"/>
-      <c r="D112" s="38" t="s">
+      <c r="C131" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D131" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E112" s="24" t="s">
+      <c r="E131" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F112" s="24" t="s">
+      <c r="F131" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="G112" s="37" t="s">
+      <c r="G131" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="H112" s="37" t="s">
+      <c r="H131" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="I112" s="37" t="s">
+      <c r="I131" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="J112" s="17" t="s">
+      <c r="J131" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K112" s="17" t="s">
+      <c r="K131" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-    </row>
-    <row r="113" spans="1:15" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B113" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="D113" s="16" t="s">
+      <c r="L131" s="37"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D132" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E132" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F113" s="16" t="s">
+      <c r="F132" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="G113" s="16" t="s">
+      <c r="G132" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="H113" s="16" t="s">
+      <c r="H132" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="I113" s="16" t="s">
+      <c r="I132" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="J113" s="28" t="s">
+      <c r="J132" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="K113" s="16" t="s">
+      <c r="K132" s="16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A117" s="15"/>
-      <c r="G117"/>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A119" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B119" s="15"/>
-      <c r="C119" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A120" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B120" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D120" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E120" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F120" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G120" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H120" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="I120" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J120" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K120" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="L120" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="M120" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N120" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="O120" s="17" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A121" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B121" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D121" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E121" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F121" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G121" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="H121" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="I121" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="J121" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="K121" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="O121" s="16" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A123" s="15"/>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J124" s="37"/>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A126" s="15"/>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A127" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B127" s="15"/>
-      <c r="C127" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G127" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A128" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B128" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C128" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D128" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E128" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F128" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G128" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H128" s="37" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B129" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C129" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D129" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E129" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F129" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="G129" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H129" s="37"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C130" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="D130" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="H130" s="37"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="15"/>
+      <c r="L132" s="37"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B134" s="15"/>
-      <c r="C134" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="L134" s="37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B135" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D135" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E135" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F135" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G135" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H135" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I135" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="J135" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K135" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="L135" s="37"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B136" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="C136" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D136" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E136" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F136" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="G136" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="H136" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="I136" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J136" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="K136" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="L136" s="37"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="15"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="15"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="15"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="15"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="15"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="15"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="15"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="15"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="15"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="15"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="15"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="15"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="15"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="15"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="15"/>
+      <c r="A134" s="15"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="15"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="15"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="15"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="15"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="15"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="15"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="15"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="15"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="15"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="15"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="15"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="15"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="15"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="1.0899999999999999" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5602,7 +5602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B814BD-924A-4B40-9373-2457DF501635}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
